--- a/monte-carlo-demos.xlsx
+++ b/monte-carlo-demos.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ms-excel-toronto-monte-carlo-methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FD554-2190-42E3-9E10-56DC707874FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB6368-7F51-4AF5-9639-1C04FEB7C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{51600CD5-4396-47ED-A3C9-B9285F560A06}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{51600CD5-4396-47ED-A3C9-B9285F560A06}"/>
   </bookViews>
   <sheets>
-    <sheet name="faker" sheetId="1" r:id="rId1"/>
+    <sheet name="faker" sheetId="17" r:id="rId1"/>
     <sheet name="faker-exercise-solutions" sheetId="15" r:id="rId2"/>
-    <sheet name="montecarlo-1" sheetId="11" r:id="rId3"/>
-    <sheet name="montecarlo-2" sheetId="12" r:id="rId4"/>
-    <sheet name="profit-path" sheetId="13" r:id="rId5"/>
+    <sheet name="monte-carlo-1" sheetId="11" r:id="rId3"/>
+    <sheet name="monte-carlo-exercise" sheetId="18" r:id="rId4"/>
+    <sheet name="monte-carlo-2" sheetId="12" r:id="rId5"/>
+    <sheet name="profit-path" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="8">
+  <futureMetadata name="XLRICHVALUE" count="9">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -111,13 +112,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="9">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -141,6 +149,9 @@
     </bk>
     <bk>
       <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -167,24 +178,95 @@
     <pythonScript>
       <code>from faker import Faker
 fake = Faker()
-fake.seed_instance(1234)
-fake.name()</code>
+# Generate a single fake name
+fake_name = fake.name()</code>
     </pythonScript>
     <pythonScript>
-      <code>fake.country()</code>
+      <code xml:space="preserve"># Generate a list of 10 fake names
+Faker.seed(1234)
+fake_names = [fake.name() for _ in range(10)]
+</code>
     </pythonScript>
     <pythonScript>
-      <code>def generate_data(num_rows):
-    data = {
-        'Name': [fake.name() for _ in range(num_rows)],
-        'Age': [fake.random_int(min=18, max=80) for _ in range(num_rows)],
-        'City': [fake.city() for _ in range(num_rows)],
-        'Income': [fake.random_int(min=30000, max=120000) for _ in range(num_rows)],
-        'Category': [fake.random_element(elements=('A', 'B', 'C')) for _ in range(num_rows)],
-        'Score': [np.round(np.random.uniform(0, 100), 2) for _ in range(num_rows)]
-    }
+      <code>data = {
+    'Name': [fake.name() for _ in range(10)],
+    'Email': [fake.email() for _ in range(10)]
+}
+df = pd.DataFrame(data)</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Generate names
+names = [fake.name() for _ in range(10)]
+# Create email addresses based on names
+emails = [f"{name.replace(' ', '.').lower()}@example.com" for name in names]
+# Create the DataFrame directly from the lists
+df = pd.DataFrame({
+    'Name': names,
+    'Email': emails
+})
+df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>def generate_fake_names(num_entries):
+    fake = Faker()
+    Faker.seed(1234)
+    # Generate names
+    names = [fake.name() for _ in range(num_entries)]
+    # Create email addresses based on names
+    emails = [f"{name.replace(' ', '.').lower()}@example.com" for name in names]
+    # Create the DataFrame directly from the lists
+    df = pd.DataFrame({
+        'Name': names,
+        'Email': emails
+    })
+    return df
+# Example usage
+df = generate_fake_names(5)
+df</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">from faker import Faker
+import pandas as pd
+import random
+# Function to generate data
+def generate_data(n, seed=1234):
+    # Set seeds for reproducibility
+    random.seed(seed)
+    Faker.seed(seed)
+    # Create Faker instance
+    fake = Faker()
+    # List of realistic business categories
+    business_categories = [
+        'Electronics', 'Furniture', 'Groceries', 'Clothing', 'Beauty Products',
+        'Books', 'Toys', 'Automotive', 'Home Improvement', 'Sports Equipment'
+    ]
+    data = {'Category': [random.choice(business_categories) for _ in range(n)],
+            'Quantity': [fake.random_int(min=1, max=100) for _ in range(n)]}
     return pd.DataFrame(data)
-df = generate_data(10)</code>
+# Generate data for 2 entries
+df = generate_data(2)
+df
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">import random
+# Function to generate data
+def generate_data(n, seed=1234):
+    # Set seeds for reproducibility
+    random.seed(seed)
+    np.random.seed(seed)
+    # List of realistic business categories
+    business_categories = [
+        'Electronics', 'Furniture', 'Groceries', 'Clothing', 'Beauty Products',
+        'Books', 'Toys', 'Automotive', 'Home Improvement', 'Sports Equipment'
+    ]
+    data = {'Category': [random.choice(business_categories) for _ in range(n)],
+            'Quantity': np.random.normal(loc=50, scale=10, size=n).astype(int)}
+    return pd.DataFrame(data)
+# Generate data for 2 entries
+df = generate_data(2)
+df
+</code>
     </pythonScript>
     <pythonScript>
       <code>from faker import Faker
@@ -258,6 +340,35 @@
 plt.xlabel('Annual Profit')
 plt.ylabel('Frequency')
 </code>
+    </pythonScript>
+    <pythonScript>
+      <code>n_simulations = xl(%P2%)
+revenue_avg = xl(%P3%)
+cost_avg = xl(%P4%)
+revenue_std = xl(%P5%)
+cost_std = xl(%P6%)
+# Random seed for reproducibility
+random_seed = xl(%P7%)
+np.random.seed(random_seed)
+# Random seed for reproducibility
+random_seed = xl(%P8%)
+np.random.seed(random_seed)
+monthly_revenues = np.random.normal(avg_monthly_revenue, 
+    std_dev_revenue, (n_simulations, n_months))
+monthly_costs = np.random.normal(avg_monthly_costs, 
+    std_dev_costs, (n_simulations, n_months))
+simulated_revenues = monthly_revenues.sum(axis=1) - monthly_costs.sum(axis=1)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>from matplotlib.ticker import FuncFormatter
+# Formatter function for the x-axis
+def currency_formatter(x, pos):
+    return '${:,.0f}'.format(x)
+sns.histplot(simulated_revenues, kde=True, color='blue', bins=50)
+plt.title('Distribution of Simulated Revenues')
+# Apply currency formatter to the x-axis
+formatter = FuncFormatter(currency_formatter)
+plt.gca().xaxis.set_major_formatter(formatter)</code>
     </pythonScript>
     <pythonScript>
       <code>revenue_per_unit_min = xl(%P2%)
@@ -338,13 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>Fake name</t>
-  </si>
-  <si>
-    <t>Fake country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Random seed</t>
   </si>
@@ -399,6 +504,18 @@
   <si>
     <t>Initial sales</t>
   </si>
+  <si>
+    <t>Revenue per unit avg</t>
+  </si>
+  <si>
+    <t>Cost per unit avg</t>
+  </si>
+  <si>
+    <t>Revenue per unit std</t>
+  </si>
+  <si>
+    <t>Cost per unit std</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="26"/>
       <color theme="1"/>
@@ -417,6 +534,13 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -440,9 +564,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -455,9 +580,10 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7D5D588A-30DF-4A99-BC88-BD787AE412CB}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{074DCF2B-92DD-4E8D-B4D1-1C910F9C23F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,10 +602,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49343</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144593</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6281057" cy="4919312"/>
     <xdr:pic>
@@ -495,7 +621,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'montecarlo-1'!A13"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'monte-carlo-1'!A13"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -508,7 +634,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3986213" y="3383093"/>
+          <a:off x="6905625" y="3144968"/>
           <a:ext cx="6281057" cy="4919312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -539,7 +665,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'montecarlo-1'!A32"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'monte-carlo-1'!A32"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -567,18 +693,67 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11243</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6281057" cy="4919312"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D53BC7-183E-45D3-90DC-FA2AB7615C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'monte-carlo-exercise'!A12"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="3011618"/>
+          <a:ext cx="6281057" cy="4919312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2598965</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>273097</xdr:rowOff>
+      <xdr:colOff>2570390</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>446043</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>256085</xdr:rowOff>
+      <xdr:colOff>417468</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -593,7 +768,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'montecarlo-2'!A11"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'monte-carlo-2'!A11"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -606,8 +781,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2598965" y="3312439"/>
-          <a:ext cx="6992983" cy="7072877"/>
+          <a:off x="2570390" y="3483022"/>
+          <a:ext cx="6972028" cy="6983863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,7 +817,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'montecarlo-2'!G11"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'monte-carlo-2'!G11"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -691,7 +866,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'montecarlo-2'!A35"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'monte-carlo-2'!A35"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -717,7 +892,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -874,7 +1049,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -923,6 +1098,11 @@
   </rv>
   <rv s="3">
     <v>6</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>7</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1003,6 +1183,7 @@
   <rel r:id="rId5"/>
   <rel r:id="rId6"/>
   <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
 </richValueRels>
 </file>
 
@@ -1322,258 +1503,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEFA63E-FA6B-4246-B57F-211372380992}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8057F2D-BFF2-4259-A4FA-06D971BCB63A}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
   <cols>
-    <col min="1" max="1" width="10.703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="5" width="10.79296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.56640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.11328125" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" customWidth="1"/>
+    <col min="5" max="5" width="6.01953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1">_xlfn._xlws.PY(0,0)</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1">_xlfn._xlws.PY(0,0)</f>
+        <v>Brandon Bender</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3:A12">_xlfn._xlws.PY(1,0)</f>
         <v>Jessica Smith</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2">_xlfn._xlws.PY(1,0)</f>
-        <v>United States Minor Outlying Islands</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A4" t="str" cm="1">
-        <f t="array" ref="A4:F14">_xlfn._xlws.PY(2,0)</f>
+    <row r="4" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A4" t="str">
+        <v>Teresa Aguilar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A5" t="str">
+        <v>Angela Miranda</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A6" t="str">
+        <v>Andre Mccormick</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A7" t="str">
+        <v>Marcus Gilbert</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A8" t="str">
+        <v>Clayton Wilson</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A9" t="str">
+        <v>John Hanna</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A10" t="str">
+        <v>Joshua Owens</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A11" t="str">
+        <v>Ann Riley</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A12" t="str">
+        <v>Justin Newman</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A14" t="str" cm="1">
+        <f t="array" ref="A14:B24">_xlfn._xlws.PY(2,0)</f>
         <v>Name</v>
       </c>
-      <c r="B4" t="str">
-        <v>Age</v>
-      </c>
-      <c r="C4" t="str">
-        <v>City</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Income</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="B14" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A15" t="str">
+        <v>Mr. David Mahoney</v>
+      </c>
+      <c r="B15" t="str">
+        <v>fduran@example.com</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A16" t="str">
+        <v>Joseph Smith</v>
+      </c>
+      <c r="B16" t="str">
+        <v>yalvarez@example.com</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A17" t="str">
+        <v>Abigail Thomas</v>
+      </c>
+      <c r="B17" t="str">
+        <v>scottnorman@example.com</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A18" t="str">
+        <v>James Brown</v>
+      </c>
+      <c r="B18" t="str">
+        <v>joshua26@example.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A19" t="str">
+        <v>Carly Grant</v>
+      </c>
+      <c r="B19" t="str">
+        <v>crosbydakota@example.com</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A20" t="str">
+        <v>Timothy Wise</v>
+      </c>
+      <c r="B20" t="str">
+        <v>qroth@example.com</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A21" t="str">
+        <v>Brenda Torres</v>
+      </c>
+      <c r="B21" t="str">
+        <v>michaelpark@example.org</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A22" t="str">
+        <v>Donald Drake</v>
+      </c>
+      <c r="B22" t="str">
+        <v>teresa57@example.net</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A23" t="str">
+        <v>Christopher Blevins</v>
+      </c>
+      <c r="B23" t="str">
+        <v>millerjason@example.com</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A24" t="str">
+        <v>Roy Williams</v>
+      </c>
+      <c r="B24" t="str">
+        <v>robinsonmaria@example.net</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A26" t="str" cm="1">
+        <f t="array" ref="A26:B36">_xlfn._xlws.PY(3,0)</f>
+        <v>Name</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A27" t="str">
+        <v>Mrs. Julia Richards DVM</v>
+      </c>
+      <c r="B27" t="str">
+        <v>mrs..julia.richards.dvm@example.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A28" t="str">
+        <v>Tiffany Garcia</v>
+      </c>
+      <c r="B28" t="str">
+        <v>tiffany.garcia@example.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A29" t="str">
+        <v>Stephen Stevens</v>
+      </c>
+      <c r="B29" t="str">
+        <v>stephen.stevens@example.com</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A30" t="str">
+        <v>Robert Galvan</v>
+      </c>
+      <c r="B30" t="str">
+        <v>robert.galvan@example.com</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A31" t="str">
+        <v>Steve Fisher</v>
+      </c>
+      <c r="B31" t="str">
+        <v>steve.fisher@example.com</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A32" t="str">
+        <v>Christina Brown</v>
+      </c>
+      <c r="B32" t="str">
+        <v>christina.brown@example.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A33" t="str">
+        <v>Christian Knox</v>
+      </c>
+      <c r="B33" t="str">
+        <v>christian.knox@example.com</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A34" t="str">
+        <v>Kaitlyn Taylor</v>
+      </c>
+      <c r="B34" t="str">
+        <v>kaitlyn.taylor@example.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A35" t="str">
+        <v>Christopher Thomas</v>
+      </c>
+      <c r="B35" t="str">
+        <v>christopher.thomas@example.com</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A36" t="str">
+        <v>Michelle Jackson</v>
+      </c>
+      <c r="B36" t="str">
+        <v>michelle.jackson@example.com</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A38" t="str" cm="1">
+        <f t="array" ref="A38:B43">_xlfn._xlws.PY(4,0)</f>
+        <v>Name</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A39" t="str">
+        <v>Jessica Smith</v>
+      </c>
+      <c r="B39" t="str">
+        <v>jessica.smith@example.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A40" t="str">
+        <v>Teresa Aguilar</v>
+      </c>
+      <c r="B40" t="str">
+        <v>teresa.aguilar@example.com</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A41" t="str">
+        <v>Angela Miranda</v>
+      </c>
+      <c r="B41" t="str">
+        <v>angela.miranda@example.com</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A42" t="str">
+        <v>Andre Mccormick</v>
+      </c>
+      <c r="B42" t="str">
+        <v>andre.mccormick@example.com</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A43" t="str">
+        <v>Marcus Gilbert</v>
+      </c>
+      <c r="B43" t="str">
+        <v>marcus.gilbert@example.com</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A45" t="str" cm="1">
+        <f t="array" ref="A45:B47">_xlfn._xlws.PY(5,0)</f>
         <v>Category</v>
       </c>
-      <c r="F4" t="str">
-        <v>Score</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A5" t="str">
-        <v>Renee Johnson</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Douglasfort</v>
-      </c>
-      <c r="D5">
-        <v>94992</v>
-      </c>
-      <c r="E5" t="str">
-        <v>C</v>
-      </c>
-      <c r="F5">
-        <v>81.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A6" t="str">
-        <v>Annette Gomez</v>
-      </c>
-      <c r="B6">
-        <v>47</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Jacksonland</v>
-      </c>
-      <c r="D6">
-        <v>74788</v>
-      </c>
-      <c r="E6" t="str">
-        <v>C</v>
-      </c>
-      <c r="F6">
-        <v>37.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A7" t="str">
-        <v>William Smith</v>
-      </c>
-      <c r="B7">
-        <v>74</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Martinside</v>
-      </c>
-      <c r="D7">
-        <v>106396</v>
-      </c>
-      <c r="E7" t="str">
-        <v>B</v>
-      </c>
-      <c r="F7">
-        <v>88.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A8" t="str">
-        <v>Kari Ford</v>
-      </c>
-      <c r="B8">
-        <v>51</v>
-      </c>
-      <c r="C8" t="str">
-        <v>East Anthony</v>
-      </c>
-      <c r="D8">
-        <v>91357</v>
-      </c>
-      <c r="E8" t="str">
-        <v>B</v>
-      </c>
-      <c r="F8">
-        <v>44.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A9" t="str">
-        <v>Micheal Bruce</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Kellihaven</v>
-      </c>
-      <c r="D9">
-        <v>92381</v>
-      </c>
-      <c r="E9" t="str">
-        <v>B</v>
-      </c>
-      <c r="F9">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A10" t="str">
-        <v>Shirley Wright</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Lake Kevin</v>
-      </c>
-      <c r="D10">
-        <v>35941</v>
-      </c>
-      <c r="E10" t="str">
-        <v>A</v>
-      </c>
-      <c r="F10">
-        <v>39.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A11" t="str">
-        <v>Susan Jones</v>
-      </c>
-      <c r="B11">
-        <v>78</v>
-      </c>
-      <c r="C11" t="str">
-        <v>South Joshuaton</v>
-      </c>
-      <c r="D11">
-        <v>91713</v>
-      </c>
-      <c r="E11" t="str">
-        <v>A</v>
-      </c>
-      <c r="F11">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A12" t="str">
-        <v>Kaylee Williams</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12" t="str">
-        <v>West Eric</v>
-      </c>
-      <c r="D12">
-        <v>107976</v>
-      </c>
-      <c r="E12" t="str">
-        <v>B</v>
-      </c>
-      <c r="F12">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A13" t="str">
-        <v>Amy Turner</v>
-      </c>
-      <c r="B13">
-        <v>22</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Port Mary</v>
-      </c>
-      <c r="D13">
-        <v>52278</v>
-      </c>
-      <c r="E13" t="str">
-        <v>B</v>
-      </c>
-      <c r="F13">
-        <v>81.739999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="1.3">
-      <c r="A14" t="str">
-        <v>Deborah Rios</v>
-      </c>
-      <c r="B14">
-        <v>18</v>
-      </c>
-      <c r="C14" t="str">
-        <v>New Paulstad</v>
-      </c>
-      <c r="D14">
-        <v>87618</v>
-      </c>
-      <c r="E14" t="str">
-        <v>A</v>
-      </c>
-      <c r="F14">
-        <v>29.25</v>
+      <c r="B45" t="str">
+        <v>Quantity</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A46" t="str">
+        <v>Automotive</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A47" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="B47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A50" t="str" cm="1">
+        <f t="array" ref="A50:B52">_xlfn._xlws.PY(6,0)</f>
+        <v>Category</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Quantity</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A51" t="str">
+        <v>Automotive</v>
+      </c>
+      <c r="B51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="1.3">
+      <c r="A52" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="B52">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1F393E-6CCC-4476-85A3-E3D0B13F68C6}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
   <cols>
@@ -1597,11 +1876,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="1.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:A5">_xlfn._xlws.PY(3,0)</f>
+        <f t="array" ref="A1:A5">_xlfn._xlws.PY(7,0)</f>
         <v>fwilson@example.net</v>
       </c>
       <c r="C1" t="str" cm="1">
-        <f t="array" ref="C1:C3">_xlfn._xlws.PY(4,0)</f>
+        <f t="array" ref="C1:C3">_xlfn._xlws.PY(8,0)</f>
         <v>Gilmorebury</v>
       </c>
     </row>
@@ -1633,7 +1912,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="1.3">
       <c r="A7" t="str" cm="1">
-        <f t="array" ref="A7:E17">_xlfn._xlws.PY(5,0)</f>
+        <f t="array" ref="A7:E17">_xlfn._xlws.PY(9,0)</f>
         <v>Name</v>
       </c>
       <c r="B7" t="str">
@@ -1828,7 +2107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399ED07-C8DC-49C8-A303-946EACFF6713}">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
   <cols>
@@ -1840,7 +2121,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="1">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>10000</v>
@@ -1848,7 +2129,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -1856,7 +2137,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>50000</v>
@@ -1864,7 +2145,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1000</v>
@@ -1872,7 +2153,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>50000</v>
@@ -1880,7 +2161,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="1">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -1891,7 +2172,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="1">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
         <v>1234</v>
@@ -1902,19 +2183,19 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="1">
       <c r="A12" s="1" t="e" cm="1" vm="1">
-        <f t="array" ref="A12">_xlfn._xlws.PY(6,1,B2,B3,B4,B5,B6,B7,B9)</f>
+        <f t="array" ref="A12">_xlfn._xlws.PY(10,1,B2,B3,B4,B5,B6,B7,B9)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="1">
       <c r="A13" s="1" t="e" cm="1" vm="2">
-        <f t="array" ref="A13">_xlfn._xlws.PY(7,0)</f>
+        <f t="array" ref="A13">_xlfn._xlws.PY(11,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="1">
       <c r="A32" s="1" t="e" cm="1" vm="3">
-        <f t="array" ref="A32">_xlfn._xlws.PY(8,0)</f>
+        <f t="array" ref="A32">_xlfn._xlws.PY(12,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1926,11 +2207,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E269CCAE-2102-4299-B8C5-B8B7AC107E6C}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
+  <cols>
+    <col min="1" max="1" width="20.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.54296875" style="1"/>
+    <col min="5" max="5" width="8.06640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.54296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="1">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="1">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="1">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="1">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="1">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="1">
+      <c r="A9" s="1" t="e" cm="1" vm="1">
+        <f t="array" ref="A9">_xlfn._xlws.PY(13,1,B2,B3,B4,B5,B6,B8,B8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="1">
+      <c r="A12" s="1" t="e" cm="1" vm="4">
+        <f t="array" ref="A12">_xlfn._xlws.PY(14,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9FBCEA-D17D-492C-8208-7C65F0AFA7FF}">
   <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A22" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.4" x14ac:dyDescent="1"/>
@@ -1943,7 +2311,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
@@ -1951,7 +2319,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
@@ -1959,7 +2327,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
@@ -1967,7 +2335,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>80</v>
@@ -1975,7 +2343,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
@@ -1986,7 +2354,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="1">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3">
         <v>1234</v>
@@ -1994,25 +2362,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="1">
-      <c r="A11" s="1" t="e" cm="1" vm="4">
-        <f t="array" ref="A11">_xlfn._xlws.PY(9,0,B2,B3,B4,B5,B6,B8,B9)</f>
+      <c r="A11" s="1" t="e" cm="1" vm="5">
+        <f t="array" ref="A11">_xlfn._xlws.PY(15,0,B2,B3,B4,B5,B6,B8,B9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="1" t="e" cm="1" vm="5">
-        <f t="array" ref="G11">_xlfn._xlws.PY(10,0)</f>
+      <c r="G11" s="1" t="e" cm="1" vm="6">
+        <f t="array" ref="G11">_xlfn._xlws.PY(16,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="1">
-      <c r="A35" s="1" t="e" cm="1" vm="6">
-        <f t="array" ref="A35">_xlfn._xlws.PY(11,0)</f>
+      <c r="A35" s="1" t="e" cm="1" vm="7">
+        <f t="array" ref="A35">_xlfn._xlws.PY(17,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2023,11 +2391,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58025889-45C3-41E2-BBE3-F79E630F64EC}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -2041,7 +2409,7 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>1000</v>
@@ -2049,7 +2417,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <v>0.1</v>
@@ -2057,7 +2425,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>0.05</v>
@@ -2065,7 +2433,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>12</v>
@@ -2073,7 +2441,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>1000</v>
@@ -2081,15 +2449,15 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="1">
-      <c r="A10" s="1" t="e" cm="1" vm="7">
-        <f t="array" ref="A10">_xlfn._xlws.PY(12,0,B8,B2,B3,B4,B5,B7)</f>
+      <c r="A10" s="1" t="e" cm="1" vm="8">
+        <f t="array" ref="A10">_xlfn._xlws.PY(18,0,B8,B2,B3,B4,B5,B7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J10" s="5"/>
@@ -2101,8 +2469,8 @@
       <c r="J12" s="5"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="1">
-      <c r="A27" s="1" t="e" cm="1" vm="8">
-        <f t="array" ref="A27">_xlfn._xlws.PY(13,0)</f>
+      <c r="A27" s="1" t="e" cm="1" vm="9">
+        <f t="array" ref="A27">_xlfn._xlws.PY(19,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
